--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251BD636-1E6F-408D-8ABC-C572DED587DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C04B31-4B3F-455C-B8C8-7313B4F9457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -580,6 +580,14 @@
   </si>
   <si>
     <t>(月底日日終批次)維護 LoanIfrs9Jp 每月IFRS9欄位清單J檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L2_CustDataCtrl_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)維護 CustDataCtrl 結清戶個資控管檔</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1553,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1588,29 +1596,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -1618,97 +1626,97 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>51</v>
@@ -1716,13 +1724,13 @@
     </row>
     <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>51</v>
@@ -1730,13 +1738,13 @@
     </row>
     <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>51</v>
@@ -1744,41 +1752,41 @@
     </row>
     <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -1786,69 +1794,69 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B18" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="F18" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="B19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>51</v>
@@ -1856,13 +1864,13 @@
     </row>
     <row r="21" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>51</v>
@@ -1870,13 +1878,13 @@
     </row>
     <row r="22" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>51</v>
@@ -1884,13 +1892,13 @@
     </row>
     <row r="23" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>51</v>
@@ -1898,13 +1906,13 @@
     </row>
     <row r="24" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>51</v>
@@ -1912,13 +1920,13 @@
     </row>
     <row r="25" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>51</v>
@@ -1926,13 +1934,13 @@
     </row>
     <row r="26" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>51</v>
@@ -1940,13 +1948,13 @@
     </row>
     <row r="27" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>51</v>
@@ -1954,13 +1962,13 @@
     </row>
     <row r="28" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>51</v>
@@ -1968,13 +1976,13 @@
     </row>
     <row r="29" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>51</v>
@@ -1982,13 +1990,13 @@
     </row>
     <row r="30" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>51</v>
@@ -1996,13 +2004,13 @@
     </row>
     <row r="31" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>51</v>
@@ -2010,13 +2018,13 @@
     </row>
     <row r="32" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>51</v>
@@ -2024,13 +2032,13 @@
     </row>
     <row r="33" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>51</v>
@@ -2038,13 +2046,13 @@
     </row>
     <row r="34" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>51</v>
@@ -2052,27 +2060,27 @@
     </row>
     <row r="35" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="30" t="s">
+      <c r="B36" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>140</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>51</v>
@@ -2080,13 +2088,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>51</v>
@@ -2094,13 +2102,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F38" s="30" t="s">
         <v>51</v>
@@ -2108,13 +2116,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F39" s="30" t="s">
         <v>51</v>
@@ -2122,13 +2130,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>51</v>
@@ -2136,13 +2144,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" s="30" t="s">
         <v>51</v>
@@ -2150,13 +2158,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" s="30" t="s">
         <v>51</v>
@@ -2164,13 +2172,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F43" s="30" t="s">
         <v>51</v>
@@ -2178,13 +2186,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F44" s="30" t="s">
         <v>51</v>
@@ -2192,43 +2200,57 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" t="s">
-        <v>129</v>
+        <v>148</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>122</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G48" s="29" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C04B31-4B3F-455C-B8C8-7313B4F9457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -589,17 +588,28 @@
   <si>
     <t>(日終批次)維護 CustDataCtrl 結清戶個資控管檔</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態記號</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>U : 執行中
+F : 失敗
+S : 成功</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -607,7 +617,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -615,7 +625,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -649,7 +659,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -678,7 +688,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -861,9 +871,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -887,14 +894,17 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 3" xfId="4"/>
+    <cellStyle name="一般 2 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -985,23 +995,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1037,23 +1030,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1229,29 +1205,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1262,9 +1238,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1275,11 +1251,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="12" t="s">
         <v>67</v>
       </c>
@@ -1290,51 +1266,51 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="15" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="20" customFormat="1">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -1378,7 +1354,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -1394,12 +1370,12 @@
       <c r="E10" s="16">
         <v>10</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="16">
         <v>3</v>
       </c>
@@ -1412,13 +1388,12 @@
       <c r="D11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="16">
         <v>4</v>
       </c>
@@ -1431,83 +1406,103 @@
       <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="49.5">
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="28">
-        <v>6</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="16">
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="27">
+        <v>6</v>
+      </c>
+      <c r="F14" s="26"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="16">
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="28">
-        <v>6</v>
-      </c>
-      <c r="F15" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="16">
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="27">
+        <v>6</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16">
+        <v>9</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="19"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1526,7 +1521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1534,14 +1529,14 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1560,23 +1555,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="6" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="62.875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="24" customFormat="1">
       <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
@@ -1596,21 +1591,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:6" s="28" customFormat="1">
+      <c r="A2" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1624,7 +1619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1638,7 +1633,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1652,35 +1647,35 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:6" s="29" customFormat="1">
+      <c r="A6" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="D6" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="29" customFormat="1">
+      <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1694,7 +1689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1708,77 +1703,77 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:6" s="29" customFormat="1">
+      <c r="A10" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="E10" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="29" customFormat="1">
+      <c r="A11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="E11" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="29" customFormat="1">
+      <c r="A12" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="E12" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="29" customFormat="1">
+      <c r="A13" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="E13" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="29" customFormat="1">
+      <c r="A14" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1792,7 +1787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1806,7 +1801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1820,437 +1815,437 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="F18" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="28" customFormat="1">
+      <c r="A19" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="F19" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="29" customFormat="1">
+      <c r="A20" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="F20" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="29" customFormat="1">
+      <c r="A21" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="F21" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="29" customFormat="1">
+      <c r="A22" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="F22" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="29" customFormat="1">
+      <c r="A23" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="F23" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="29" customFormat="1">
+      <c r="A24" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="F24" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="29" customFormat="1">
+      <c r="A25" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="F25" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="29" customFormat="1">
+      <c r="A26" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="F26" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="29" customFormat="1">
+      <c r="A27" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="F27" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="29" customFormat="1">
+      <c r="A28" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="F28" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="29" customFormat="1">
+      <c r="A29" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="F29" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="29" customFormat="1">
+      <c r="A30" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="F30" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="29" customFormat="1">
+      <c r="A31" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="F31" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="29" customFormat="1">
+      <c r="A32" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="F32" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="29" customFormat="1">
+      <c r="A33" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
+      <c r="F33" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="29" customFormat="1">
+      <c r="A34" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
+      <c r="F34" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="29" customFormat="1">
+      <c r="A35" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
+      <c r="F35" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="29" customFormat="1">
+      <c r="A36" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="30" t="s">
+      <c r="B36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F36" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F37" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="30" t="s">
+      <c r="B38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="30" t="s">
+      <c r="B41" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="30" t="s">
+      <c r="B42" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="30" t="s">
+      <c r="B43" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="29" t="s">
         <v>124</v>
       </c>
       <c r="G46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="28" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="160">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -281,10 +281,6 @@
   </si>
   <si>
     <t>結束時間</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExecDate,JobCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -599,6 +595,27 @@
     <t>U : 執行中
 F : 失敗
 S : 成功</t>
+  </si>
+  <si>
+    <t>TxSeq</t>
+  </si>
+  <si>
+    <t>交易序號</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>findAllByTxSeq</t>
+  </si>
+  <si>
+    <t>TxSeq =</t>
+  </si>
+  <si>
+    <t>TxSeq,ExecDate,JobCode</t>
   </si>
 </sst>
 </file>
@@ -792,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +900,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -895,8 +915,20 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1206,17 +1238,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="22" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
@@ -1224,10 +1256,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1239,8 +1271,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1251,13 +1283,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:7" ht="33">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -1267,10 +1299,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1278,10 +1310,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1289,10 +1321,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1300,10 +1332,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1333,176 +1365,197 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="20" customFormat="1">
-      <c r="A9" s="16">
+    <row r="9" spans="1:7" s="15" customFormat="1">
+      <c r="A9" s="39">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1">
+      <c r="A10" s="39">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="16">
         <v>8</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="39">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="16">
         <v>10</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="19" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16">
-        <v>3</v>
-      </c>
-      <c r="B11" s="21" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="39">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16">
-        <v>4</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="39">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="49.5">
-      <c r="A13" s="16">
-        <v>5</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="D13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="49.5">
+      <c r="A14" s="39">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="17" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="39">
+        <v>7</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16">
+      <c r="E15" s="27">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="27">
-        <v>6</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16">
-        <v>7</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="27"/>
       <c r="F15" s="26"/>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16">
+      <c r="A16" s="39">
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="27">
-        <v>6</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E16" s="27"/>
       <c r="F16" s="26"/>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="16">
+      <c r="A17" s="39">
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="27">
+        <v>6</v>
+      </c>
       <c r="F17" s="26"/>
       <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="39">
+        <v>10</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1522,16 +1575,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="67.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1545,6 +1599,14 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1593,13 +1655,13 @@
     </row>
     <row r="2" spans="1:6" s="28" customFormat="1">
       <c r="A2" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>51</v>
@@ -1610,7 +1672,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1649,13 +1711,13 @@
     </row>
     <row r="6" spans="1:6" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>51</v>
@@ -1663,13 +1725,13 @@
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>116</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>51</v>
@@ -1705,13 +1767,13 @@
     </row>
     <row r="10" spans="1:6" s="29" customFormat="1">
       <c r="A10" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>74</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>51</v>
@@ -1719,13 +1781,13 @@
     </row>
     <row r="11" spans="1:6" s="29" customFormat="1">
       <c r="A11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>78</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>51</v>
@@ -1733,13 +1795,13 @@
     </row>
     <row r="12" spans="1:6" s="29" customFormat="1">
       <c r="A12" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>51</v>
@@ -1747,13 +1809,13 @@
     </row>
     <row r="13" spans="1:6" s="29" customFormat="1">
       <c r="A13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>75</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>76</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>51</v>
@@ -1761,13 +1823,13 @@
     </row>
     <row r="14" spans="1:6" s="29" customFormat="1">
       <c r="A14" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>120</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>51</v>
@@ -1817,13 +1879,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="C18" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>51</v>
@@ -1831,13 +1893,13 @@
     </row>
     <row r="19" spans="1:6" s="28" customFormat="1">
       <c r="A19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>113</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>114</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>51</v>
@@ -1845,13 +1907,13 @@
     </row>
     <row r="20" spans="1:6" s="29" customFormat="1">
       <c r="A20" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>92</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>51</v>
@@ -1859,13 +1921,13 @@
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1">
       <c r="A21" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>51</v>
@@ -1873,13 +1935,13 @@
     </row>
     <row r="22" spans="1:6" s="29" customFormat="1">
       <c r="A22" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>95</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>96</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>51</v>
@@ -1887,13 +1949,13 @@
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1">
       <c r="A23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>97</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>98</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>51</v>
@@ -1901,13 +1963,13 @@
     </row>
     <row r="24" spans="1:6" s="29" customFormat="1">
       <c r="A24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>100</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>51</v>
@@ -1915,13 +1977,13 @@
     </row>
     <row r="25" spans="1:6" s="29" customFormat="1">
       <c r="A25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>102</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>51</v>
@@ -1929,13 +1991,13 @@
     </row>
     <row r="26" spans="1:6" s="29" customFormat="1">
       <c r="A26" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>103</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>104</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>51</v>
@@ -1943,13 +2005,13 @@
     </row>
     <row r="27" spans="1:6" s="29" customFormat="1">
       <c r="A27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>106</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>51</v>
@@ -1957,13 +2019,13 @@
     </row>
     <row r="28" spans="1:6" s="29" customFormat="1">
       <c r="A28" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>51</v>
@@ -1971,13 +2033,13 @@
     </row>
     <row r="29" spans="1:6" s="29" customFormat="1">
       <c r="A29" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>51</v>
@@ -1985,13 +2047,13 @@
     </row>
     <row r="30" spans="1:6" s="29" customFormat="1">
       <c r="A30" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>51</v>
@@ -1999,13 +2061,13 @@
     </row>
     <row r="31" spans="1:6" s="29" customFormat="1">
       <c r="A31" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>51</v>
@@ -2013,13 +2075,13 @@
     </row>
     <row r="32" spans="1:6" s="29" customFormat="1">
       <c r="A32" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>81</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>82</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>51</v>
@@ -2027,13 +2089,13 @@
     </row>
     <row r="33" spans="1:7" s="29" customFormat="1">
       <c r="A33" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>51</v>
@@ -2041,13 +2103,13 @@
     </row>
     <row r="34" spans="1:7" s="29" customFormat="1">
       <c r="A34" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>51</v>
@@ -2055,13 +2117,13 @@
     </row>
     <row r="35" spans="1:7" s="29" customFormat="1">
       <c r="A35" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>51</v>
@@ -2069,13 +2131,13 @@
     </row>
     <row r="36" spans="1:7" s="29" customFormat="1">
       <c r="A36" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>51</v>
@@ -2083,13 +2145,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>51</v>
@@ -2097,13 +2159,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>51</v>
@@ -2111,13 +2173,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>51</v>
@@ -2125,13 +2187,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>51</v>
@@ -2139,13 +2201,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41" s="29" t="s">
         <v>51</v>
@@ -2153,13 +2215,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>51</v>
@@ -2167,13 +2229,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>51</v>
@@ -2181,13 +2243,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" s="29" t="s">
         <v>51</v>
@@ -2195,13 +2257,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>51</v>
@@ -2209,44 +2271,44 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>124</v>
-      </c>
       <c r="G46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>126</v>
-      </c>
       <c r="G47" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="29" t="s">
+      <c r="G48" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B9C637-5F6D-48DA-95CB-33D71B8071B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2566C2B9-D96F-43D8-A042-EBA8BE90E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -596,11 +596,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>U : 執行中
-F : 失敗
-S : 成功</t>
-  </si>
-  <si>
     <t>TxSeq</t>
   </si>
   <si>
@@ -636,6 +631,12 @@
   <si>
     <t>(月底日日終批次)維護 JcicRel聯徵授信「同一關係企業及集團企業」資料報送檔</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>U:執行中
+F:失敗
+S:成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -953,6 +954,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -964,12 +971,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1315,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1331,10 +1332,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1346,8 +1347,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1359,12 +1360,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -1374,10 +1375,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1385,10 +1386,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1396,10 +1397,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1407,10 +1408,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1445,20 +1446,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>153</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>154</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -1557,7 +1558,7 @@
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="30" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1678,10 +1679,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1841,7 +1842,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2114,7 +2115,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>51</v>
@@ -2128,21 +2129,21 @@
         <v>36</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
-        <v>158</v>
+      <c r="A31" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>51</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2566C2B9-D96F-43D8-A042-EBA8BE90E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E151CF02-27CE-4C74-8871-EBF72C41FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="72" windowWidth="17244" windowHeight="12012" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="160">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -308,14 +308,6 @@
   </si>
   <si>
     <t>(日終批次)維護 JcicB204每日聯徵授信日報資料檔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Usp_L7_Ias39Loan34Data_Upd</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底日日終批次)維護 Ias39Loan34Data 每月IAS39放款34號公報資料檔</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -643,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -726,15 +718,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -845,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,9 +938,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1332,10 +1312,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1347,8 +1327,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1360,12 +1340,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -1375,10 +1355,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1386,10 +1366,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1397,10 +1377,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1408,10 +1388,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1446,20 +1426,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="E9" s="31" t="s">
         <v>151</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>153</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -1545,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>12</v>
@@ -1558,7 +1538,7 @@
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1679,10 +1659,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1694,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1731,13 +1711,13 @@
     </row>
     <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>51</v>
@@ -1748,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1801,13 +1781,13 @@
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>51</v>
@@ -1842,14 +1822,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>72</v>
+      <c r="A10" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>51</v>
@@ -1857,13 +1837,13 @@
     </row>
     <row r="11" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>51</v>
@@ -1871,13 +1851,13 @@
     </row>
     <row r="12" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>51</v>
@@ -1885,41 +1865,41 @@
     </row>
     <row r="13" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="29" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -1927,57 +1907,57 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="28" t="s">
+    <row r="19" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2101,7 +2081,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>51</v>
@@ -2109,21 +2089,21 @@
     </row>
     <row r="29" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>109</v>
+      <c r="A30" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>36</v>
@@ -2136,14 +2116,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
-        <v>157</v>
+      <c r="A31" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>51</v>
@@ -2154,7 +2134,7 @@
         <v>78</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>79</v>
@@ -2182,7 +2162,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>83</v>
@@ -2196,7 +2176,7 @@
         <v>84</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>85</v>
@@ -2210,7 +2190,7 @@
         <v>86</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>87</v>
@@ -2219,15 +2199,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>88</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>126</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>51</v>
@@ -2235,13 +2215,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>51</v>
@@ -2249,13 +2229,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>51</v>
@@ -2263,13 +2243,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>51</v>
@@ -2277,13 +2257,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="29" t="s">
         <v>51</v>
@@ -2291,13 +2271,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>51</v>
@@ -2305,13 +2285,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>51</v>
@@ -2319,13 +2299,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44" s="29" t="s">
         <v>51</v>
@@ -2333,13 +2313,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>51</v>
@@ -2347,16 +2327,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>51</v>
+        <v>119</v>
+      </c>
+      <c r="G46" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2364,13 +2344,13 @@
         <v>120</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G47" t="s">
-        <v>126</v>
+      <c r="G47" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2378,27 +2358,13 @@
         <v>122</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>123</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
